--- a/WIP/Users/LucPT/FAP_TestViewpoint_Room Management_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Room Management_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -280,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$54</definedName>
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$24</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!#REF!</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$64</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$63</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -318,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$39</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -974,14 +974,6 @@
     <t>Chỉ tiêu thể hiện là đang phù hợp ở mức độ như thế nào trong quy cách・quy tắc・tiêu chuẩn (của protocol v.v…)liên quan đến tính linh động</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
-    <t>- Display full item 
-- Display header, footer, suggest bar
-- Text's color is black</t>
-  </si>
-  <si>
     <t>1.2.3</t>
   </si>
   <si>
@@ -991,10 +983,6 @@
     <t>1.2.3.2</t>
   </si>
   <si>
-    <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>FLY AWAY PLUS</t>
   </si>
   <si>
@@ -1011,11 +999,6 @@
   </si>
   <si>
     <t>FAP_Software requirement specification_v1.0</t>
-  </si>
-  <si>
-    <t>- Web title: Friend Management
-- Display normally, there is not push, breaking font
-- Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
     <t>1.2.4</t>
@@ -1186,33 +1169,6 @@
     <t>Add member</t>
   </si>
   <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Click on "Setting" button on Room details screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display a window with user’s friend list </t>
-  </si>
-  <si>
-    <t>Select friend</t>
-  </si>
-  <si>
-    <t>Select friend(s) on list</t>
-  </si>
-  <si>
-    <t>Click on "Add member" on list and Click "Add" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Add new member to room and send notification to each people
-2. Redirect user to Room details screen
-</t>
-  </si>
-  <si>
     <t>Update schedule status</t>
   </si>
   <si>
@@ -1220,9 +1176,6 @@
   </si>
   <si>
     <t>1.2.7.1</t>
-  </si>
-  <si>
-    <t>1.2.7.2</t>
   </si>
   <si>
     <t>1.2.7.3</t>
@@ -1295,20 +1248,49 @@
     <t>Type a message on chat box</t>
   </si>
   <si>
-    <t xml:space="preserve">Word that user input is displayed 
+    <t>1.2.10.2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Click "Send" button or press Enter</t>
+  </si>
+  <si>
+    <t>Display message on chat windows; all member on room can see this message</t>
+  </si>
+  <si>
+    <t>- Web title: Room Management
+- Display normally, there is not push, breaking font
+- Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t>- Display full item 
+- Display header, footer, suggest bar</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>Room management screen</t>
+  </si>
+  <si>
+    <t>Input friend's email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words that user input are displayed 
 </t>
   </si>
   <si>
-    <t>1.2.10.2</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Click "Send" button or press Enter</t>
-  </si>
-  <si>
-    <t>Display message on chat windows; all member on room can see this message</t>
+    <t>Words that user input are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new member to room and send notification to each people
+</t>
+  </si>
+  <si>
+    <t>Click "Add" button</t>
   </si>
 </sst>
 </file>
@@ -3296,6 +3278,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3316,24 +3316,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3731,6 +3713,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="647700"/>
+          <a:ext cx="10058400" cy="4362389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>122759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="9144000"/>
+          <a:ext cx="10058400" cy="4713809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>48102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="5391150"/>
+          <a:ext cx="5734850" cy="3419952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6414,7 +6533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6434,14 +6553,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6456,57 +6575,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="C4" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="C5" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="C6" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6529,10 +6648,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6548,12 +6667,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6562,13 +6681,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6576,8 +6695,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6585,8 +6704,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6594,8 +6713,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6603,8 +6722,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6612,8 +6731,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6621,6 +6740,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6628,12 +6753,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6647,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6771,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6840,10 +6959,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6871,7 +6990,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6901,7 +7020,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6920,7 +7039,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6932,10 +7051,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -6947,7 +7066,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6966,7 +7085,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6978,22 +7097,22 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -7006,13 +7125,13 @@
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7024,23 +7143,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7052,22 +7171,22 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="61"/>
       <c r="F19" s="51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -7080,13 +7199,13 @@
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="56"/>
       <c r="F20" s="62"/>
       <c r="G20" s="62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7098,23 +7217,23 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="56"/>
       <c r="F21" s="62"/>
       <c r="G21" s="62" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7126,22 +7245,22 @@
         <v>37</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="61"/>
       <c r="F22" s="51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
@@ -7154,13 +7273,13 @@
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="56"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7172,23 +7291,23 @@
         <v>37</v>
       </c>
       <c r="K23" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L23" s="62" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="56"/>
       <c r="F24" s="62"/>
       <c r="G24" s="62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>35</v>
@@ -7200,22 +7319,22 @@
         <v>37</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L24" s="62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
       <c r="F25" s="51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
@@ -7224,17 +7343,17 @@
       <c r="K25" s="52"/>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="71.25" customHeight="1">
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="84.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="56"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7246,23 +7365,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="56"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7274,22 +7393,22 @@
         <v>37</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="61"/>
       <c r="F28" s="51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -7298,17 +7417,17 @@
       <c r="K28" s="52"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="1:12" s="44" customFormat="1" ht="71.25" customHeight="1">
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="56"/>
       <c r="F29" s="62"/>
       <c r="G29" s="62" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>35</v>
@@ -7320,23 +7439,23 @@
         <v>37</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1" ht="52.5" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="49" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="56"/>
       <c r="F30" s="62"/>
       <c r="G30" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7348,69 +7467,69 @@
         <v>37</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="52.5" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="L31" s="62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
+        <v>185</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="55"/>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1" ht="71.25" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="55"/>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="71.25" customHeight="1">
+        <v>186</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="65.25" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="56"/>
       <c r="F33" s="62"/>
       <c r="G33" s="62" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>35</v>
@@ -7422,115 +7541,115 @@
         <v>37</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
+        <v>194</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="55"/>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="62.25" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="55"/>
-    </row>
-    <row r="36" spans="1:12" s="44" customFormat="1" ht="62.25" customHeight="1">
+        <v>195</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="L36" s="62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
+        <v>201</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="55"/>
+    </row>
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="62.25" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="1:12" s="44" customFormat="1" ht="62.25" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="56"/>
       <c r="F38" s="62"/>
       <c r="G38" s="62" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="H38" s="49" t="s">
         <v>35</v>
@@ -7542,39 +7661,25 @@
         <v>37</v>
       </c>
       <c r="K38" s="56" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L38" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="44" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="L39" s="62" t="s">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="44" customFormat="1">
+      <c r="A39" s="63"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="1:12" s="44" customFormat="1">
       <c r="A40" s="63"/>
@@ -7588,7 +7693,7 @@
       <c r="I40" s="66"/>
       <c r="J40" s="67"/>
       <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
       <c r="A41" s="63"/>
@@ -7611,7 +7716,7 @@
       <c r="D42" s="64"/>
       <c r="E42" s="65"/>
       <c r="F42" s="65"/>
-      <c r="G42" s="70"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="64"/>
       <c r="I42" s="66"/>
       <c r="J42" s="67"/>
@@ -7621,7 +7726,7 @@
     <row r="43" spans="1:12" s="44" customFormat="1">
       <c r="A43" s="63"/>
       <c r="B43" s="72"/>
-      <c r="C43" s="64"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="65"/>
@@ -7663,7 +7768,7 @@
     <row r="46" spans="1:12" s="44" customFormat="1">
       <c r="A46" s="63"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
@@ -7676,7 +7781,7 @@
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
       <c r="A47" s="63"/>
-      <c r="B47" s="72"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
@@ -7690,7 +7795,7 @@
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
@@ -7719,8 +7824,8 @@
     <row r="50" spans="1:13" s="44" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
@@ -7728,14 +7833,14 @@
       <c r="I50" s="66"/>
       <c r="J50" s="67"/>
       <c r="K50" s="65"/>
-      <c r="L50" s="71"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="1:13" s="44" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="72"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="65"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
       <c r="H51" s="64"/>
@@ -7746,7 +7851,7 @@
     </row>
     <row r="52" spans="1:13" s="44" customFormat="1">
       <c r="A52" s="63"/>
-      <c r="B52" s="72"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="67"/>
       <c r="D52" s="64"/>
       <c r="E52" s="70"/>
@@ -7765,16 +7870,16 @@
       <c r="D53" s="64"/>
       <c r="E53" s="70"/>
       <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="64"/>
       <c r="I53" s="66"/>
       <c r="J53" s="67"/>
-      <c r="K53" s="65"/>
+      <c r="K53" s="71"/>
       <c r="L53" s="65"/>
     </row>
     <row r="54" spans="1:13" s="44" customFormat="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="67"/>
       <c r="D54" s="64"/>
       <c r="E54" s="70"/>
@@ -7783,16 +7888,16 @@
       <c r="H54" s="64"/>
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
-      <c r="K54" s="71"/>
+      <c r="K54" s="65"/>
       <c r="L54" s="65"/>
     </row>
     <row r="55" spans="1:13" s="44" customFormat="1">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="67"/>
       <c r="D55" s="64"/>
       <c r="E55" s="70"/>
-      <c r="F55" s="65"/>
+      <c r="F55" s="70"/>
       <c r="G55" s="70"/>
       <c r="H55" s="64"/>
       <c r="I55" s="66"/>
@@ -7803,8 +7908,8 @@
     <row r="56" spans="1:13" s="44" customFormat="1">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="64"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="70"/>
       <c r="F56" s="70"/>
       <c r="G56" s="70"/>
@@ -7817,52 +7922,52 @@
     <row r="57" spans="1:13" s="44" customFormat="1">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="68"/>
     </row>
     <row r="58" spans="1:13" s="44" customFormat="1">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="67"/>
       <c r="D58" s="64"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="68"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
     </row>
     <row r="59" spans="1:13" s="44" customFormat="1">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="64"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="73"/>
       <c r="F59" s="65"/>
       <c r="G59" s="73"/>
       <c r="H59" s="64"/>
       <c r="I59" s="66"/>
       <c r="J59" s="67"/>
-      <c r="K59" s="73"/>
+      <c r="K59" s="74"/>
       <c r="L59" s="73"/>
     </row>
     <row r="60" spans="1:13" s="44" customFormat="1">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="73"/>
-      <c r="F60" s="65"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="73"/>
       <c r="H60" s="64"/>
       <c r="I60" s="66"/>
@@ -7871,8 +7976,8 @@
       <c r="L60" s="73"/>
     </row>
     <row r="61" spans="1:13" s="44" customFormat="1">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="67"/>
       <c r="D61" s="64"/>
       <c r="E61" s="73"/>
@@ -7887,8 +7992,8 @@
     <row r="62" spans="1:13" s="44" customFormat="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="64"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="73"/>
       <c r="F62" s="73"/>
       <c r="G62" s="73"/>
@@ -7899,39 +8004,40 @@
       <c r="L62" s="73"/>
     </row>
     <row r="63" spans="1:13" s="44" customFormat="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="73"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="37"/>
     </row>
     <row r="64" spans="1:13" s="44" customFormat="1">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="68"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="73"/>
       <c r="M64" s="37"/>
     </row>
-    <row r="65" spans="1:13" s="44" customFormat="1">
+    <row r="65" spans="1:13">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="73"/>
       <c r="F65" s="65"/>
       <c r="G65" s="73"/>
@@ -7940,38 +8046,38 @@
       <c r="J65" s="67"/>
       <c r="K65" s="74"/>
       <c r="L65" s="73"/>
-      <c r="M65" s="37"/>
+      <c r="M65" s="44"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="44"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="68"/>
+    </row>
+    <row r="67" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A67" s="63"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="68"/>
-    </row>
-    <row r="68" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E67" s="73"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="37"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="63"/>
       <c r="B68" s="72"/>
       <c r="C68" s="38"/>
@@ -7984,35 +8090,34 @@
       <c r="J68" s="67"/>
       <c r="K68" s="74"/>
       <c r="L68" s="73"/>
-      <c r="M68" s="37"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="63"/>
-      <c r="B69" s="72"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="73"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="68"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="38"/>
@@ -8021,43 +8126,44 @@
       <c r="D71" s="38"/>
       <c r="E71" s="65"/>
       <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
+      <c r="G71" s="70"/>
       <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="75"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="67"/>
       <c r="K71" s="65"/>
       <c r="L71" s="65"/>
+      <c r="M71" s="44"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="44"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="68"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="69"/>
-      <c r="L73" s="68"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -8070,7 +8176,7 @@
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
       <c r="L74" s="38"/>
-      <c r="M74" s="37"/>
+      <c r="M74" s="44"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="38"/>
@@ -8085,13 +8191,12 @@
       <c r="J75" s="38"/>
       <c r="K75" s="38"/>
       <c r="L75" s="38"/>
-      <c r="M75" s="44"/>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -8100,8 +8205,9 @@
       <c r="J76" s="38"/>
       <c r="K76" s="38"/>
       <c r="L76" s="38"/>
-    </row>
-    <row r="77" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="64"/>
@@ -8114,13 +8220,11 @@
       <c r="J77" s="38"/>
       <c r="K77" s="38"/>
       <c r="L77" s="38"/>
-      <c r="M77" s="37"/>
+      <c r="M77" s="44"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -8131,9 +8235,11 @@
       <c r="L78" s="38"/>
       <c r="M78" s="44"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -8142,11 +8248,11 @@
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="44"/>
+      <c r="M79" s="37"/>
     </row>
     <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="72"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
       <c r="E80" s="38"/>
@@ -8159,11 +8265,9 @@
       <c r="L80" s="38"/>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="81" spans="1:12">
       <c r="A81" s="63"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
+      <c r="B81" s="64"/>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -8172,11 +8276,8 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="37"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="63"/>
-      <c r="B82" s="64"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -8186,19 +8287,19 @@
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
     </row>
-    <row r="83" spans="1:13">
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-    </row>
-    <row r="84" spans="1:13">
+    <row r="83" spans="1:12">
+      <c r="E83" s="70"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="E84" s="70"/>
-      <c r="F84" s="65"/>
+      <c r="F84" s="70"/>
       <c r="G84" s="70"/>
       <c r="H84" s="64"/>
       <c r="I84" s="66"/>
@@ -8206,25 +8307,15 @@
       <c r="K84" s="65"/>
       <c r="L84" s="65"/>
     </row>
-    <row r="85" spans="1:13">
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-    </row>
-    <row r="89" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="90" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="91" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="92" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="94" spans="1:13" ht="18" customHeight="1"/>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="99" ht="30" customHeight="1"/>
-    <row r="103" ht="44.25" customHeight="1"/>
-    <row r="104" ht="45" customHeight="1"/>
+    <row r="88" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="89" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="90" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="91" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="93" spans="1:12" ht="18" customHeight="1"/>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="102" ht="44.25" customHeight="1"/>
+    <row r="103" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8242,19 +8333,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I70 I67 I64 I58 I73">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I69 I66 I63 I57 I72">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J70 J67 J64 J58 J73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69 J66 J63 J57 J72">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H84:H85 H72:H73 H20:H21 H8:H10 H15 H13 H17:H18 H23:H24 H26:H27 H29:H31 H33:H34 H36 H38:H70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H83:H84 H71:H72 H20:H21 H8:H10 H15 H13 H17:H18 H23:H24 H26:H27 H32:H33 H35 H37:H69 H29:H30">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I84:I85 I72 I68:I69 I65:I66 I59:I63 I20:I21 I8:I10 I15 I13 I17:I18 I23:I24 I26:I27 I29:I31 I33:I34 I36 I38:I57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I83:I84 I71 I67:I68 I64:I65 I58:I62 I20:I21 I8:I10 I15 I13 I17:I18 I23:I24 I26:I27 I32:I33 I35 I37:I56 I29:I30">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J59:J63 J65:J66 J72 J68:J69 J84:J85 J8:J10 J23:J24 J13 J15 J17:J18 J20:J21 J26:J27 J29:J31 J33:J34 J36 J38:J57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J58:J62 J64:J65 J71 J67:J68 J83:J84 J8:J10 J23:J24 J13 J15 J17:J18 J20:J21 J26:J27 J32:J33 J35 J37:J56 J29:J30">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8268,20 +8359,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="76" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
